--- a/statistic/CA Charger.xlsx
+++ b/statistic/CA Charger.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="652">
   <si>
     <t>120kW</t>
   </si>
@@ -2010,6 +2010,9 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -3198,16 +3201,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M569"/>
+  <dimension ref="A1:M570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="B570" sqref="B570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6" bestFit="1" customWidth="1"/>
@@ -26553,6 +26556,15 @@
         <v>11</v>
       </c>
     </row>
+    <row r="570" spans="1:13">
+      <c r="A570" t="s">
+        <v>651</v>
+      </c>
+      <c r="B570">
+        <f>SUM(B569:M569)/COUNTA(A2:A568)</f>
+        <v>2.1322751322751321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
